--- a/output/ITAÚ_17412175000109.xlsx
+++ b/output/ITAÚ_17412175000109.xlsx
@@ -1417,10 +1417,10 @@
         <v>44165</v>
       </c>
       <c r="B94">
-        <v>1.0963177</v>
+        <v>1.094374</v>
       </c>
       <c r="C94">
-        <v>0.003964628253662283</v>
+        <v>0.003033755014392847</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_17412175000109.xlsx
+++ b/output/ITAÚ_17412175000109.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ LONG AND SHORT 30 MULTIMERCADO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1041 +383,762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41364</v>
       </c>
       <c r="B2">
-        <v>0.01073299999999988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41394</v>
       </c>
       <c r="B3">
-        <v>0.02270930000000004</v>
-      </c>
-      <c r="C3">
         <v>0.01184912335898813</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41425</v>
       </c>
       <c r="B4">
-        <v>0.03478209999999993</v>
-      </c>
-      <c r="C4">
         <v>0.0118047230038878</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41455</v>
       </c>
       <c r="B5">
-        <v>0.04345299999999996</v>
-      </c>
-      <c r="C5">
         <v>0.008379445295777721</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41486</v>
       </c>
       <c r="B6">
-        <v>0.05036569999999996</v>
-      </c>
-      <c r="C6">
         <v>0.006624831209455451</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41517</v>
       </c>
       <c r="B7">
-        <v>0.05314920000000001</v>
-      </c>
-      <c r="C7">
         <v>0.00265002941356518</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41547</v>
       </c>
       <c r="B8">
-        <v>0.05588680000000013</v>
-      </c>
-      <c r="C8">
         <v>0.002599441750513742</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41578</v>
       </c>
       <c r="B9">
-        <v>0.06334320000000004</v>
-      </c>
-      <c r="C9">
         <v>0.007061741845811431</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41608</v>
       </c>
       <c r="B10">
-        <v>0.07560559999999983</v>
-      </c>
-      <c r="C10">
         <v>0.01153193061280655</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41639</v>
       </c>
       <c r="B11">
-        <v>0.0876169</v>
-      </c>
-      <c r="C11">
         <v>0.01116701140269272</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41670</v>
       </c>
       <c r="B12">
-        <v>0.09424030000000005</v>
-      </c>
-      <c r="C12">
         <v>0.00608982813709491</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41698</v>
       </c>
       <c r="B13">
-        <v>0.09710770000000002</v>
-      </c>
-      <c r="C13">
         <v>0.002620448177607759</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41729</v>
       </c>
       <c r="B14">
-        <v>0.09317890000000006</v>
-      </c>
-      <c r="C14">
         <v>-0.003581052252208172</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41759</v>
       </c>
       <c r="B15">
-        <v>0.09776349999999989</v>
-      </c>
-      <c r="C15">
         <v>0.004193824084968822</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41790</v>
       </c>
       <c r="B16">
-        <v>0.1089663000000001</v>
-      </c>
-      <c r="C16">
         <v>0.01020511248552181</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41820</v>
       </c>
       <c r="B17">
-        <v>0.1198235000000001</v>
-      </c>
-      <c r="C17">
         <v>0.009790378661642007</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41851</v>
       </c>
       <c r="B18">
-        <v>0.1327225999999999</v>
-      </c>
-      <c r="C18">
         <v>0.01151886882173825</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41882</v>
       </c>
       <c r="B19">
-        <v>0.1455825000000002</v>
-      </c>
-      <c r="C19">
         <v>0.01135308856731587</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41912</v>
       </c>
       <c r="B20">
-        <v>0.1681699000000001</v>
-      </c>
-      <c r="C20">
         <v>0.01971695622096181</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41943</v>
       </c>
       <c r="B21">
-        <v>0.1783753000000001</v>
-      </c>
-      <c r="C21">
         <v>0.008736229207754853</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41973</v>
       </c>
       <c r="B22">
-        <v>0.1931986999999999</v>
-      </c>
-      <c r="C22">
         <v>0.01257952368825088</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42004</v>
       </c>
       <c r="B23">
-        <v>0.2136127000000001</v>
-      </c>
-      <c r="C23">
         <v>0.01710863412774422</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42035</v>
       </c>
       <c r="B24">
-        <v>0.2100072000000002</v>
-      </c>
-      <c r="C24">
         <v>-0.00297088189667094</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42063</v>
       </c>
       <c r="B25">
-        <v>0.2106462</v>
-      </c>
-      <c r="C25">
         <v>0.0005280960311639937</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42094</v>
       </c>
       <c r="B26">
-        <v>0.2287345000000001</v>
-      </c>
-      <c r="C26">
         <v>0.01494102901409189</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42124</v>
       </c>
       <c r="B27">
-        <v>0.2258564000000001</v>
-      </c>
-      <c r="C27">
         <v>-0.002342328631612434</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42155</v>
       </c>
       <c r="B28">
-        <v>0.2361434</v>
-      </c>
-      <c r="C28">
         <v>0.008391684376734432</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42185</v>
       </c>
       <c r="B29">
-        <v>0.2593108000000002</v>
-      </c>
-      <c r="C29">
         <v>0.01874167673426896</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42216</v>
       </c>
       <c r="B30">
-        <v>0.2856426000000001</v>
-      </c>
-      <c r="C30">
         <v>0.02090969123746089</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42247</v>
       </c>
       <c r="B31">
-        <v>0.3077489999999998</v>
-      </c>
-      <c r="C31">
         <v>0.01719482537370776</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42277</v>
       </c>
       <c r="B32">
-        <v>0.3198805</v>
-      </c>
-      <c r="C32">
         <v>0.009276627242689628</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42308</v>
       </c>
       <c r="B33">
-        <v>0.3248951999999998</v>
-      </c>
-      <c r="C33">
         <v>0.003799359108646483</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42338</v>
       </c>
       <c r="B34">
-        <v>0.3384928</v>
-      </c>
-      <c r="C34">
         <v>0.01026315137982259</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42369</v>
       </c>
       <c r="B35">
-        <v>0.3553023</v>
-      </c>
-      <c r="C35">
         <v>0.01255852851804651</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42400</v>
       </c>
       <c r="B36">
-        <v>0.3651854000000001</v>
-      </c>
-      <c r="C36">
         <v>0.007292173856710882</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42429</v>
       </c>
       <c r="B37">
-        <v>0.3745806999999999</v>
-      </c>
-      <c r="C37">
         <v>0.00688206891166554</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42460</v>
       </c>
       <c r="B38">
-        <v>0.3872811999999999</v>
-      </c>
-      <c r="C38">
         <v>0.009239544829925173</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42490</v>
       </c>
       <c r="B39">
-        <v>0.4042341</v>
-      </c>
-      <c r="C39">
         <v>0.01222023336004274</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42521</v>
       </c>
       <c r="B40">
-        <v>0.4091070999999999</v>
-      </c>
-      <c r="C40">
         <v>0.003470219103780314</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42551</v>
       </c>
       <c r="B41">
-        <v>0.4317342</v>
-      </c>
-      <c r="C41">
         <v>0.01605775742667115</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42582</v>
       </c>
       <c r="B42">
-        <v>0.4571622</v>
-      </c>
-      <c r="C42">
         <v>0.01776027980612604</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42613</v>
       </c>
       <c r="B43">
-        <v>0.4715792000000001</v>
-      </c>
-      <c r="C43">
         <v>0.009893888271326423</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42643</v>
       </c>
       <c r="B44">
-        <v>0.4933970999999999</v>
-      </c>
-      <c r="C44">
         <v>0.01482618128878133</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42674</v>
       </c>
       <c r="B45">
-        <v>0.5255300000000001</v>
-      </c>
-      <c r="C45">
         <v>0.02151664818419707</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42704</v>
       </c>
       <c r="B46">
-        <v>0.5364803</v>
-      </c>
-      <c r="C46">
         <v>0.007178029930581475</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42735</v>
       </c>
       <c r="B47">
-        <v>0.5541269</v>
-      </c>
-      <c r="C47">
         <v>0.01148508054415021</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42766</v>
       </c>
       <c r="B48">
-        <v>0.5850199999999999</v>
-      </c>
-      <c r="C48">
         <v>0.01987810647894972</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42794</v>
       </c>
       <c r="B49">
-        <v>0.6022659999999997</v>
-      </c>
-      <c r="C49">
         <v>0.01088061980290456</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42825</v>
       </c>
       <c r="B50">
-        <v>0.6254385</v>
-      </c>
-      <c r="C50">
         <v>0.01446233022481924</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42855</v>
       </c>
       <c r="B51">
-        <v>0.6449567999999999</v>
-      </c>
-      <c r="C51">
         <v>0.0120080212201199</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42886</v>
       </c>
       <c r="B52">
-        <v>0.6537880999999999</v>
-      </c>
-      <c r="C52">
         <v>0.005368712418466037</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42916</v>
       </c>
       <c r="B53">
-        <v>0.6742804</v>
-      </c>
-      <c r="C53">
         <v>0.01239112798066455</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42947</v>
       </c>
       <c r="B54">
-        <v>0.6910384000000001</v>
-      </c>
-      <c r="C54">
         <v>0.01000907613802338</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42978</v>
       </c>
       <c r="B55">
-        <v>0.7148603000000002</v>
-      </c>
-      <c r="C55">
         <v>0.01408714314234394</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43008</v>
       </c>
       <c r="B56">
-        <v>0.7339019</v>
-      </c>
-      <c r="C56">
         <v>0.01110387825760495</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43039</v>
       </c>
       <c r="B57">
-        <v>0.7438324999999999</v>
-      </c>
-      <c r="C57">
         <v>0.005727313638678178</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43069</v>
       </c>
       <c r="B58">
-        <v>0.7452311000000003</v>
-      </c>
-      <c r="C58">
         <v>0.0008020265707862073</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43100</v>
       </c>
       <c r="B59">
-        <v>0.7485120999999999</v>
-      </c>
-      <c r="C59">
         <v>0.00187998025017988</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43131</v>
       </c>
       <c r="B60">
-        <v>0.7661463000000002</v>
-      </c>
-      <c r="C60">
         <v>0.01008526049090563</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43159</v>
       </c>
       <c r="B61">
-        <v>0.7848237</v>
-      </c>
-      <c r="C61">
         <v>0.01057522811105738</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43190</v>
       </c>
       <c r="B62">
-        <v>0.8149456000000002</v>
-      </c>
-      <c r="C62">
         <v>0.01687668087329874</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43220</v>
       </c>
       <c r="B63">
-        <v>0.8509277000000002</v>
-      </c>
-      <c r="C63">
         <v>0.01982544270197417</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43251</v>
       </c>
       <c r="B64">
-        <v>0.8524238</v>
-      </c>
-      <c r="C64">
         <v>0.0008082973743381849</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43281</v>
       </c>
       <c r="B65">
-        <v>0.8924713</v>
-      </c>
-      <c r="C65">
         <v>0.02161897293697046</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43312</v>
       </c>
       <c r="B66">
-        <v>0.9074674000000003</v>
-      </c>
-      <c r="C66">
         <v>0.007924083181604979</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43343</v>
       </c>
       <c r="B67">
-        <v>0.8979389000000002</v>
-      </c>
-      <c r="C67">
         <v>-0.004995367155422925</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43373</v>
       </c>
       <c r="B68">
-        <v>0.8952661</v>
-      </c>
-      <c r="C68">
         <v>-0.001408264512624879</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43404</v>
       </c>
       <c r="B69">
-        <v>0.9542515999999999</v>
-      </c>
-      <c r="C69">
         <v>0.03112254263398673</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43434</v>
       </c>
       <c r="B70">
-        <v>0.9695288999999998</v>
-      </c>
-      <c r="C70">
         <v>0.007817468334169408</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43465</v>
       </c>
       <c r="B71">
-        <v>1.0173225</v>
-      </c>
-      <c r="C71">
         <v>0.02426651368253596</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43496</v>
       </c>
       <c r="B72">
-        <v>1.022525</v>
-      </c>
-      <c r="C72">
         <v>0.002578913386431791</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43524</v>
       </c>
       <c r="B73">
-        <v>1.0342056</v>
-      </c>
-      <c r="C73">
         <v>0.005775256177303234</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43555</v>
       </c>
       <c r="B74">
-        <v>1.0319683</v>
-      </c>
-      <c r="C74">
         <v>-0.001099839662224933</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43585</v>
       </c>
       <c r="B75">
-        <v>1.0434272</v>
-      </c>
-      <c r="C75">
         <v>0.005639310416407639</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43616</v>
       </c>
       <c r="B76">
-        <v>1.0593894</v>
-      </c>
-      <c r="C76">
         <v>0.007811484549094638</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43646</v>
       </c>
       <c r="B77">
-        <v>1.084404</v>
-      </c>
-      <c r="C77">
         <v>0.01214661005830187</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43677</v>
       </c>
       <c r="B78">
-        <v>1.1150399</v>
-      </c>
-      <c r="C78">
         <v>0.01469767856902982</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43708</v>
       </c>
       <c r="B79">
-        <v>1.1356039</v>
-      </c>
-      <c r="C79">
         <v>0.009722748020025485</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43738</v>
       </c>
       <c r="B80">
-        <v>1.1224173</v>
-      </c>
-      <c r="C80">
         <v>-0.006174646899642755</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43769</v>
       </c>
       <c r="B81">
-        <v>1.1215252</v>
-      </c>
-      <c r="C81">
         <v>-0.0004203226198732368</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43799</v>
       </c>
       <c r="B82">
-        <v>1.1439039</v>
-      </c>
-      <c r="C82">
         <v>0.01054840168761628</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43830</v>
       </c>
       <c r="B83">
-        <v>1.1877992</v>
-      </c>
-      <c r="C83">
         <v>0.02047447182683859</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43861</v>
       </c>
       <c r="B84">
-        <v>1.2297443</v>
-      </c>
-      <c r="C84">
         <v>0.0191722805273904</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43890</v>
       </c>
       <c r="B85">
-        <v>1.2144703</v>
-      </c>
-      <c r="C85">
         <v>-0.006850112813384102</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43921</v>
       </c>
       <c r="B86">
-        <v>1.1307137</v>
-      </c>
-      <c r="C86">
         <v>-0.03782240836555795</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43951</v>
       </c>
       <c r="B87">
-        <v>1.1083793</v>
-      </c>
-      <c r="C87">
         <v>-0.01048212155391881</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43982</v>
       </c>
       <c r="B88">
-        <v>1.102747</v>
-      </c>
-      <c r="C88">
         <v>-0.00267138839771397</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44012</v>
       </c>
       <c r="B89">
-        <v>1.1308728</v>
-      </c>
-      <c r="C89">
         <v>0.01337574135166997</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>44043</v>
       </c>
       <c r="B90">
-        <v>1.1343153</v>
-      </c>
-      <c r="C90">
         <v>0.00161553519290325</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>44074</v>
       </c>
       <c r="B91">
-        <v>1.1351446</v>
-      </c>
-      <c r="C91">
         <v>0.0003885555241065486</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44104</v>
       </c>
       <c r="B92">
-        <v>1.1084674</v>
-      </c>
-      <c r="C92">
         <v>-0.0124943294238713</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44135</v>
       </c>
       <c r="B93">
-        <v>1.0880394</v>
-      </c>
-      <c r="C93">
         <v>-0.009688553875672912</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44165</v>
       </c>
       <c r="B94">
-        <v>1.094374</v>
-      </c>
-      <c r="C94">
-        <v>0.003033755014392847</v>
+        <v>0.00224813765487375</v>
       </c>
     </row>
   </sheetData>
